--- a/заказы/филиалы и опт/2024/03,24/04,03,24 Ост КИ филиалы/дв 04,03,24 днрсч ост ки.xlsx
+++ b/заказы/филиалы и опт/2024/03,24/04,03,24 Ост КИ филиалы/дв 04,03,24 днрсч ост ки.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\04,03,24 Ост филиалы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\Останкино\ostankino_data\заказы\филиалы и опт\2024\03,24\04,03,24 Ост КИ филиалы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D28C28F-4069-4511-8971-1BB2553DB920}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9004DF7-9847-437E-AFD1-61470CAE0827}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="115">
   <si>
     <t>Номенклатура</t>
   </si>
@@ -374,6 +374,9 @@
   <si>
     <t>09,03,</t>
   </si>
+  <si>
+    <t>завод вывел</t>
+  </si>
 </sst>
 </file>
 
@@ -419,7 +422,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -451,6 +454,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,7 +499,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -506,6 +515,7 @@
     <xf numFmtId="164" fontId="2" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Arial10px" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
@@ -812,8 +822,8 @@
   <dimension ref="A1:AX499"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R9" sqref="R9"/>
+      <pane ySplit="5" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R79" sqref="R79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1155,7 +1165,7 @@
       </c>
       <c r="P5" s="4">
         <f t="shared" si="0"/>
-        <v>5670.369200000001</v>
+        <v>5521.9692000000014</v>
       </c>
       <c r="Q5" s="4">
         <f t="shared" si="0"/>
@@ -1187,7 +1197,7 @@
       <c r="Z5" s="1"/>
       <c r="AA5" s="4">
         <f>SUM(AA6:AA499)</f>
-        <v>4505.6823999999988</v>
+        <v>4459.6783999999989</v>
       </c>
       <c r="AB5" s="1"/>
       <c r="AC5" s="1"/>
@@ -8366,7 +8376,7 @@
         <v>1</v>
       </c>
       <c r="G79" s="6">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="H79" s="1" t="e">
         <v>#N/A</v>
@@ -8388,15 +8398,14 @@
         <f t="shared" si="13"/>
         <v>16.600000000000001</v>
       </c>
-      <c r="P79" s="5">
-        <f>9*O79-N79-F79</f>
-        <v>148.4</v>
+      <c r="P79" s="15">
+        <v>0</v>
       </c>
       <c r="Q79" s="5"/>
       <c r="R79" s="1"/>
       <c r="S79" s="1">
         <f t="shared" si="14"/>
-        <v>9</v>
+        <v>6.0240963855421679E-2</v>
       </c>
       <c r="T79" s="1">
         <f t="shared" si="15"/>
@@ -8417,10 +8426,12 @@
       <c r="Y79" s="1">
         <v>0</v>
       </c>
-      <c r="Z79" s="1"/>
+      <c r="Z79" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="AA79" s="1">
         <f t="shared" si="16"/>
-        <v>46.004000000000005</v>
+        <v>0</v>
       </c>
       <c r="AB79" s="1"/>
       <c r="AC79" s="1"/>
